--- a/DOM_Banner/output/dept_banner/Jose Gonzalez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Gonzalez_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,386 +360,201 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Aditya Bardia, Gabriel N. Hortobágyi, Oleg Lipatov, Nicholas P. McAndrew, Aleksandra Łacko, Joohyuk Sohn, Lowell L. Hart, John Crown, S-A Im, Nadia Harbeck, J. O’Shaughnessy, Binghe Xu, Carlos H. Barrios, Rebecca Moroose, Victor Gonzalez, R Fresco, Farhat Ghaznawi, Simon Waters, Arunava Chakravartty, Dennis J. Slamon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387809689</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>LBA23 Invasive disease–free survival (iDFS) across key subgroups from the phase III NATALEE study of ribociclib (RIB) + a nonsteroidal aromatase inhibitor (NSAI) in patients (pts) with HR+/HER2- early breast cancer (EBC)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5034972183", "https://openalex.org/A5018617106", "https://openalex.org/A5042452774", "https://openalex.org/A5088539775", "https://openalex.org/A5036264969", "https://openalex.org/A5030577122", "https://openalex.org/A5013955755", "https://openalex.org/A5043292277", "https://openalex.org/A5048570099", "https://openalex.org/A5027231412", "https://openalex.org/A5048774512", "https://openalex.org/A5008098651", "https://openalex.org/A5032942551", "https://openalex.org/A5015931437", 
-"https://openalex.org/A5088237569", "https://openalex.org/A5054850677", "https://openalex.org/A5045081442", "https://openalex.org/A5087609764", "https://openalex.org/A5035337768", "https://openalex.org/A5015491002"), au_display_name = c("Aditya Bardia", "Gabriel N. Hortobágyi", "Oleg Lipatov", "Nicholas P. McAndrew", "Aleksandra Łacko", "Joohyuk Sohn", "Lowell L. Hart", "John Crown", "S-A Im", "Nadia Harbeck", "J. O’Shaughnessy", "Binghe Xu", "Carlos H. Barrios", "Rebecca Moroose", "Victor Gonzalez", 
-"R Fresco", "Farhat Ghaznawi", "Simon Waters", "Arunava Chakravartty", "Dennis J. Slamon"), au_orcid = c("https://orcid.org/0000-0003-4885-1157", "https://orcid.org/0000-0002-4873-4412", "https://orcid.org/0000-0002-8867-504X", "https://orcid.org/0000-0002-6799-5204", NA, "https://orcid.org/0000-0002-2303-2764", NA, NA, NA, "https://orcid.org/0000-0002-9744-7372", NA, "https://orcid.org/0000-0002-0234-2747", "https://orcid.org/0000-0001-6021-667X", NA, NA, NA, NA, "https://orcid.org/0000-0003-0205-4398", 
-NA, "https://orcid.org/0000-0002-6330-498X"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, 
-NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Annals of Oncology</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.annonc.2023.10.013</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Annals of Oncology</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S41454044</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Elsevier BV</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0923-7534</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.annonc.2023.10.013</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>S1261</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>S1262</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4387809689</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4387809689", doi = "https://doi.org/10.1016/j.annonc.2023.10.013")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.10.013</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2063752897", "https://openalex.org/W2004287019", "https://openalex.org/W2385053099", "https://openalex.org/W2041850705", "https://openalex.org/W2409486576", "https://openalex.org/W1972333242", "https://openalex.org/W1968946548", "https://openalex.org/W2092792292", "https://openalex.org/W1975307184", "https://openalex.org/W2110109601")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Humberto Jiménez, Felipe Antonio Larrea Lara, Bryan Martín Morales Morales, Patrick Manuel Garcés Alcivar, J. J. Arias, Fernando Alexander Enríquez Guerrero</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385878960</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Guía de Procedimientos en Cirugía Plástica Reconstructiva Vol. 1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5028486069", "https://openalex.org/A5000859221", "https://openalex.org/A5055458160", "https://openalex.org/A5059051993", "https://openalex.org/A5022234729", "https://openalex.org/A5005729560"), au_display_name = c("Humberto Jiménez", "Felipe Antonio Larrea Lara", "Bryan Martín Morales Morales", "Patrick Manuel Garcés Alcivar", "J. J. Arias", "Fernando Alexander Enríquez Guerrero"), au_orcid = c("https://orcid.org/0000-0001-5972-1767", NA, "https://orcid.org/0009-0009-8436-2837", 
-NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La 'Guía de Procedimientos en Cirugía Plástica Reconstructiva, Vol. 1' es una obra fundamental que desglosa de manera detallada y accesible una amplia variedad de procedimientos en el campo de la cirugía plástica reconstructiva. Este primer volumen ofrece una perspectiva única sobre las técnicas quirúrgicas modernas utilizadas para restaurar la función y la estética en pacientes que han experimentado traumas, deformidades congénitas o cirugías previas.</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>Juan Cuevas eBooks</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Juan Cuevas eBooks</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306488456</t>
+          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -749,132 +564,42 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.56470/978-9942-627-93-3</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>es</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4385878960</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4385878960", doi = "https://doi.org/10.56470/978-9942-627-93-3")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>book-chapter</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2603296253", "https://openalex.org/W1589203209", "https://openalex.org/W2557454913", "https://openalex.org/W2732870254", "https://openalex.org/W93312527", "https://openalex.org/W828925460", "https://openalex.org/W11365241", "https://openalex.org/W1013667899", "https://openalex.org/W2559405764", "https://openalex.org/W157591366")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Jose Gonzalez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Gonzalez_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,82 +524,246 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>L. Chamorro, Aysha Concepción Lizardi, Aida L. Jiménez, José Martínez González</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4380791984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Relación entre la Violencia Familiar, el Apoyo Percibido y Funcionamiento Familiar en Comunidades con Altos Niveles de Violencia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Revista caribeña de psicología</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.37226/rcp.v7i1.7117</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.37226/rcp.v7i1.7117</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Humberto Jiménez, Felipe Antonio Larrea Lara, Bryan Martín Morales Morales, Patrick Manuel Garcés Alcivar, J. J. Arias, Fernando Alexander Enríquez Guerrero</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>https://openalex.org/W4385878960</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Guía de Procedimientos en Cirugía Plástica Reconstructiva Vol. 1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Juan Cuevas eBooks</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://doi.org/10.56470/978-9942-627-93-3</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://doi.org/10.56470/978-9942-627-93-3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>book-chapter</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joaquín Fernández García, José Martínez González, Francisco Fernández Guisasola</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4387096413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>grandes síndromes culturales de la medicina popular asturiana</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anthologica Annua</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.59530/anthann.2013.60.11</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.59530/anthann.2013.60.11</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Jose Gonzalez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Gonzalez_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Medical Oncology Dept., Massachusetts General Hospital Cancer Center, Harvard Medical School, Boston, MA, USA; Department of Breast Medical Oncology, The University of Texas M. D. Anderson Cancer Center, Houston, TX, USA; Oncology Center, Bashkirian Republican Oncology Center, Bashkortostan, Russian Federation; ; Oncology, Dolnoslaskie Centrum Onkologii, Wrocław, Poland; Medical Oncology Department, Yonsei Cancer Center, Seoul, Republic of Korea; Sarah Cannon Research Institute, Florida Cancer Specialists, Fort Myers, FL, USA; Department of Medical Oncology, St Vincent's University Hospital, Dublin, Ireland; Internal Medicine Dept, SNUH - Seoul National University Hospital, Seoul, Republic of Korea; Breast Center, Department of Obstetrics and Gynecology, LMU University Hospital, Munich, Germany; Oncology, Texas Oncology-Baylor University Medical Center and The US Oncology Research Network, Dallas, TX, USA; Medical Oncology, Chinese Academy of Medical Sciences and Peking Union Medical College - National Cancer Center, Cancer Hospital, Beijing, China; Oncology Research Center, Latin American Cooperative Oncology Group (LACOG), Porto Alegre, Brazil; Oncology, Orlando Health Cancer Institute, Orlando, FL, USA; ; ; Oncology, Novartis Pharmaceuticals Corporation, East Hanover, NJ, USA; Clinical Research Dept., Novartis Ireland Limited, Dublin, Ireland; Clinical Research Dept., Novartis Ireland Limited, Dublin, Ireland; Hematology/Oncology, UCLA - David Geffen School of Medicine, Los Angeles, CA, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387809689</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>LBA23 Invasive disease–free survival (iDFS) across key subgroups from the phase III NATALEE study of ribociclib (RIB) + a nonsteroidal aromatase inhibitor (NSAI) in patients (pts) with HR+/HER2- early breast cancer (EBC)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Annals of Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2023.10.013</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2023.10.013</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Universidad Albizu, Recinto de San Juan, Puerto Rico; Universidad Albizu, Recinto de San Juan, Puerto Rico; Universidad de Puerto Rico, Recinto de Río Piedras, Puerto Rico; Universidad Albizu, Recinto de San Juan, Puerto Rico</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380791984</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Relación entre la Violencia Familiar, el Apoyo Percibido y Funcionamiento Familiar en Comunidades con Altos Niveles de Violencia</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Revista caribeña de psicología</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.37226/rcp.v7i1.7117</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.37226/rcp.v7i1.7117</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,164 +621,174 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Humberto Jiménez, Felipe Antonio Larrea Lara, Bryan Martín Morales Morales, Patrick Manuel Garcés Alcivar, J. J. Arias, Fernando Alexander Enríquez Guerrero</t>
+          <t>Joaquín Fernández García, José Martínez González, Francisco Fernández Guisasola</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385878960</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Guía de Procedimientos en Cirugía Plástica Reconstructiva Vol. 1</t>
+          <t>https://openalex.org/W4387096413</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-09-14</t>
+          <t>grandes síndromes culturales de la medicina popular asturiana</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juan Cuevas eBooks</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Anthologica Annua</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.59530/anthann.2013.60.11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.59530/anthann.2013.60.11</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joaquín Fernández García, José Martínez González, Francisco Fernández Guisasola</t>
+          <t>Humberto Jiménez, Felipe Antonio Larrea Lara, Bryan Martín Morales Morales, Patrick Manuel Garcés Alcivar, J. J. Arias, Fernando Alexander Enríquez Guerrero</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387096413</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>grandes síndromes culturales de la medicina popular asturiana</t>
+          <t>https://openalex.org/W4385878960</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>Guía de Procedimientos en Cirugía Plástica Reconstructiva Vol. 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Anthologica Annua</t>
+          <t>2023-09-14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Juan Cuevas eBooks</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.59530/anthann.2013.60.11</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.59530/anthann.2013.60.11</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.56470/978-9942-627-93-3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
